--- a/medicine/Psychotrope/Glenora/Glenora.xlsx
+++ b/medicine/Psychotrope/Glenora/Glenora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La distillerie Glenora est situé en Nouvelle-Écosse au Canada. Elle produit depuis 1991 le single malt Glen Breton Rare, seul single malt produit exclusivement au Canada.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La distillerie a été construite en 1989 avec des alambics achetés à la distillerie de Bowmore. Ken Roberts, enseigna alors la méthode de distillation de la distillerie écossaise[2]. Si Glenora utilise des malts écossais, ceux-ci sont cependant beaucoup moins tourbés que ceux des whiskies d'Islay.
-Le 11 juin 2009, à la suite d'une bataille juridique qui durait depuis 2001 entre la distillerie la Scotch Whisky Association, la cour suprême autorisait Glenora à utiliser le terme Glen pour nommer son Glen Breton Rare[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La distillerie a été construite en 1989 avec des alambics achetés à la distillerie de Bowmore. Ken Roberts, enseigna alors la méthode de distillation de la distillerie écossaise. Si Glenora utilise des malts écossais, ceux-ci sont cependant beaucoup moins tourbés que ceux des whiskies d'Islay.
+Le 11 juin 2009, à la suite d'une bataille juridique qui durait depuis 2001 entre la distillerie la Scotch Whisky Association, la cour suprême autorisait Glenora à utiliser le terme Glen pour nommer son Glen Breton Rare.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Production et embouteillages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Malgré son nom, qui indique clairement un produit proche des scotchs, Glenora revendique, sur ses étiquettes, son origine canadienne par un texte ou par une feuille d'érable rouge.
-Le whisky se décrit comme ayant un nez de caramel, de bruyère, de miel et de gingembre avec sur sa fin, le plus « léger chuchotement tourbe »[4].
+Le whisky se décrit comme ayant un nez de caramel, de bruyère, de miel et de gingembre avec sur sa fin, le plus « léger chuchotement tourbe ».
 Glen Breton Rare
 Glen Breton Rare 15 ans
 Glen Breton Ice 10 ans (avec maturation en fût de vin de glace)</t>
@@ -578,7 +594,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Malt Whisky Yearbook, 2009</t>
         </is>
